--- a/PythonWorkspace/Lotto/a.xlsx
+++ b/PythonWorkspace/Lotto/a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwanghokwon/Desktop/PythonWorkspace/MiguelGIT/PythonWorkspace/Lotto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MiguelGIT\PythonWorkspace\Lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101E01A8-AB67-0642-99DF-F93ED1B7213B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B7F938-79A6-4FCA-8807-D0DE4DC39336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="28800" windowHeight="15400" xr2:uid="{FC0E7004-F67B-43AC-840D-239CDE00DB93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC0E7004-F67B-43AC-840D-239CDE00DB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,12 +46,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -81,9 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,208 +414,208 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>10</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>23</v>
       </c>
       <c r="C1" s="1">
         <v>29</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>33</v>
       </c>
       <c r="E1" s="1">
         <v>37</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>13</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>15</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>15</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>15</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>15</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>33</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
       <c r="E9" s="1">
         <v>18</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>24</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>44</v>
       </c>
       <c r="C10" s="1">
         <v>45</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>35</v>
       </c>
       <c r="E10" s="1">
         <v>36</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>32</v>
       </c>
     </row>
